--- a/biology/Zoologie/Hommes_et_Loups/Hommes_et_Loups.xlsx
+++ b/biology/Zoologie/Hommes_et_Loups/Hommes_et_Loups.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hommes et Loups (titre italien : Uomini e lupi) est un film franco-italien réalisé par Giuseppe De Santis et Leopoldo Savona, sorti en 1957.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans les Abruzzes, région montagneuse de l’Italie centrale, pays sévère et étrange, les troupeaux abondent et à l’approche de l’hiver, l’écho d’effrayants hurlements de loups se répercutent dans la vallée. Les possesseurs de bétail, pour lutter contre ce fléau, font appel aux louvetiers, chasseurs de loups, rompus au guet, au dur combat, à la solitude, ce sont des montagnards farouches et indépendants. Lorsqu’il a tué un loup, le louvetier promène la dépouille de la bête de village en village. Les villageois le récompensent en lui offrant des dons en espèces, de la farine, du vin, du pain, du jambon, etc. C’est par un rude matin que Giovanni, louvetier, arrive au village de Vischio accompagné de sa femme Teresa et de son fils de dix ans.
 Peu de temps après, Ricuccio arrive aussi au village, désinvolte, la poitrine bardée de cartouches, armé d’un fusil, habité de manières insolentes, sous le regard pétillant des dames.
@@ -546,7 +560,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Hommes et Loups
 Titre original : Uomini e lupi
@@ -602,7 +618,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Silvana Mangano : Térésa
 Yves Montand : Ricuccio
@@ -639,7 +657,9 @@
           <t>À noter</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Ce film qui met en évidence le drame d'un peuple prolétaire, froid, endurci, habitué aux durs combats de l'hiver, tout en faisant ressortir, la misère matérielle et humaine des villages montagnards qui n’ont d’autres ressources que l’élevage du bétail[réf. nécessaire].</t>
         </is>
